--- a/Results_files/S_cerevisiae_S_pombe_results.xlsx
+++ b/Results_files/S_cerevisiae_S_pombe_results.xlsx
@@ -88004,12 +88004,12 @@
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>P14126</t>
+          <t>P40185</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>P40372</t>
+          <t>O43003</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
@@ -88024,24 +88024,24 @@
       </c>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>PTHR11363</t>
+          <t>PTHR11803</t>
         </is>
       </c>
       <c r="F2753" t="inlineStr">
         <is>
-          <t>PTHR11363</t>
+          <t>PTHR11803</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>P53304</t>
+          <t>Q06631</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>Q09710</t>
+          <t>Q9US05</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
@@ -88056,24 +88056,24 @@
       </c>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>PTHR28037</t>
+          <t>PTHR15565</t>
         </is>
       </c>
       <c r="F2754" t="inlineStr">
         <is>
-          <t>PTHR28037</t>
+          <t>PTHR15565</t>
         </is>
       </c>
     </row>
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>P0CX54</t>
+          <t>P09435</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>P0CT84</t>
+          <t>Q10265</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
@@ -88088,24 +88088,24 @@
       </c>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR19375</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR19375</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>P0CX54</t>
+          <t>Q06597</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>P0CT83</t>
+          <t>Q8WZK3</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
@@ -88120,24 +88120,24 @@
       </c>
       <c r="E2756" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR10828</t>
         </is>
       </c>
       <c r="F2756" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR10828</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>P0CX36</t>
+          <t>P40098</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>Q9P4W9</t>
+          <t>P87124</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
@@ -88152,24 +88152,20 @@
       </c>
       <c r="E2757" t="inlineStr">
         <is>
-          <t>PTHR11581</t>
-        </is>
-      </c>
-      <c r="F2757" t="inlineStr">
-        <is>
-          <t>PTHR11581</t>
-        </is>
-      </c>
+          <t>PTHR47260</t>
+        </is>
+      </c>
+      <c r="F2757" t="inlineStr"/>
     </row>
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>Q08108</t>
+          <t>P49626</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>O13857</t>
+          <t>Q9P784</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
@@ -88184,24 +88180,24 @@
       </c>
       <c r="E2758" t="inlineStr">
         <is>
-          <t>PTHR10728</t>
+          <t>PTHR19431</t>
         </is>
       </c>
       <c r="F2758" t="inlineStr">
         <is>
-          <t>PTHR10728</t>
+          <t>PTHR19431</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>P23585</t>
+          <t>P0CX30</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>O74849</t>
+          <t>P0CT76</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
@@ -88216,24 +88212,24 @@
       </c>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>PTHR48022</t>
+          <t>PTHR11652</t>
         </is>
       </c>
       <c r="F2759" t="inlineStr">
         <is>
-          <t>PTHR48022</t>
+          <t>PTHR11652</t>
         </is>
       </c>
     </row>
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>P40583</t>
+          <t>P0CX30</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>P32834</t>
+          <t>P0CT75</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
@@ -88248,24 +88244,24 @@
       </c>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>PTHR47965</t>
+          <t>PTHR11652</t>
         </is>
       </c>
       <c r="F2760" t="inlineStr">
         <is>
-          <t>PTHR47966</t>
+          <t>PTHR11652</t>
         </is>
       </c>
     </row>
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>P07281</t>
+          <t>P30624</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>P79016</t>
+          <t>O60135</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
@@ -88280,24 +88276,24 @@
       </c>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>PTHR11710</t>
+          <t>PTHR43272</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr">
         <is>
-          <t>PTHR11710</t>
+          <t>PTHR43272</t>
         </is>
       </c>
     </row>
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>P53305</t>
+          <t>P41056</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>O14358</t>
+          <t>Q9USX4</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
@@ -88312,24 +88308,24 @@
       </c>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>PTHR13362</t>
+          <t>PTHR10902</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr">
         <is>
-          <t>PTHR13362</t>
+          <t>PTHR10902</t>
         </is>
       </c>
     </row>
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>P13045</t>
+          <t>P36086</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>Q9HDU2</t>
+          <t>Q7Z9I3</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
@@ -88344,24 +88340,24 @@
       </c>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>PTHR10457</t>
+          <t>PTHR43544</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr">
         <is>
-          <t>PTHR10457</t>
+          <t>PTHR43544</t>
         </is>
       </c>
     </row>
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>Q02199</t>
+          <t>P38151</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>Q09793</t>
+          <t>O74919</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
@@ -88376,24 +88372,24 @@
       </c>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>PTHR23198</t>
+          <t>PTHR10288</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr">
         <is>
-          <t>PTHR13437</t>
+          <t>PTHR10288</t>
         </is>
       </c>
     </row>
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>P02829</t>
+          <t>Q02821</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>P41887</t>
+          <t>O94374</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
@@ -88408,24 +88404,24 @@
       </c>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>PTHR11528</t>
+          <t>PTHR23316</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr">
         <is>
-          <t>PTHR11528</t>
+          <t>PTHR23316</t>
         </is>
       </c>
     </row>
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>P0CX26</t>
+          <t>P69850</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>O94686</t>
+          <t>P62505</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -88440,24 +88436,24 @@
       </c>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>PTHR48188</t>
+          <t>PTHR28017</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr">
         <is>
-          <t>PTHR48188</t>
+          <t>PTHR28017</t>
         </is>
       </c>
     </row>
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>P53727</t>
+          <t>Q06563</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>O14242</t>
+          <t>O14142</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
@@ -88472,24 +88468,24 @@
       </c>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>PTHR10534</t>
+          <t>PTHR11266</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr">
         <is>
-          <t>PTHR10534</t>
+          <t>PTHR11266</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>P07255</t>
+          <t>P0C2H9</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>O94705</t>
+          <t>Q9URX6</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
@@ -88504,24 +88500,24 @@
       </c>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>PTHR28264</t>
+          <t>PTHR10956</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr">
         <is>
-          <t>PTHR28264</t>
+          <t>PTHR10956</t>
         </is>
       </c>
     </row>
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>Q02753</t>
+          <t>P19146</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>Q9UUC1</t>
+          <t>P36579</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
@@ -88536,24 +88532,24 @@
       </c>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>PTHR20981</t>
+          <t>PTHR11711</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr">
         <is>
-          <t>PTHR20981</t>
+          <t>PTHR11711</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>P04807</t>
+          <t>P01097</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>Q09756</t>
+          <t>O74523</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
@@ -88566,26 +88562,18 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>PTHR19443</t>
-        </is>
-      </c>
-      <c r="F2770" t="inlineStr">
-        <is>
-          <t>PTHR19443</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
+      <c r="F2770" t="inlineStr"/>
     </row>
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>P0CX52</t>
+          <t>P0CX41</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>P0CT65</t>
+          <t>P0CT61</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
@@ -88600,24 +88588,24 @@
       </c>
       <c r="E2771" t="inlineStr">
         <is>
-          <t>PTHR21569</t>
+          <t>PTHR11761</t>
         </is>
       </c>
       <c r="F2771" t="inlineStr">
         <is>
-          <t>PTHR21569</t>
+          <t>PTHR11761</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>Q06709</t>
+          <t>P0CX37</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>O59811</t>
+          <t>Q9C0Z7</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
@@ -88632,24 +88620,24 @@
       </c>
       <c r="E2772" t="inlineStr">
         <is>
-          <t>PTHR13182</t>
+          <t>PTHR11502</t>
         </is>
       </c>
       <c r="F2772" t="inlineStr">
         <is>
-          <t>PTHR13182</t>
+          <t>PTHR11502</t>
         </is>
       </c>
     </row>
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>P0CX77</t>
+          <t>Q12250</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>P87015</t>
+          <t>P0CU17</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
@@ -88664,24 +88652,24 @@
       </c>
       <c r="E2773" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR10855</t>
         </is>
       </c>
       <c r="F2773" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR10855</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>P40414</t>
+          <t>Q04371</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>Q02088</t>
+          <t>Q9UT55</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
@@ -88696,24 +88684,24 @@
       </c>
       <c r="E2774" t="inlineStr">
         <is>
-          <t>PTHR19269</t>
+          <t>PTHR12260</t>
         </is>
       </c>
       <c r="F2774" t="inlineStr">
         <is>
-          <t>PTHR19269</t>
+          <t>PTHR12260</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>P14747</t>
+          <t>P32573</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>Q12705</t>
+          <t>Q9URX0</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
@@ -88728,24 +88716,24 @@
       </c>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>PTHR45673</t>
+          <t>PTHR43296</t>
         </is>
       </c>
       <c r="F2775" t="inlineStr">
         <is>
-          <t>PTHR45673</t>
+          <t>PTHR24321</t>
         </is>
       </c>
     </row>
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>P69851</t>
+          <t>P38202</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>Q50HP4</t>
+          <t>Q96WW3</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
@@ -88760,12 +88748,12 @@
       </c>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>PTHR28222</t>
+          <t>PTHR28219</t>
         </is>
       </c>
       <c r="F2776" t="inlineStr">
         <is>
-          <t>PTHR28222</t>
+          <t>PTHR28219</t>
         </is>
       </c>
     </row>
@@ -88804,12 +88792,12 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>Q05902</t>
+          <t>P0CX54</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>Q9US04</t>
+          <t>P0CT84</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
@@ -88824,24 +88812,24 @@
       </c>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>PTHR11686</t>
+          <t>PTHR11661</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr">
         <is>
-          <t>PTHR11686</t>
+          <t>PTHR11661</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>P32601</t>
+          <t>P0CX54</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>O43057</t>
+          <t>P0CT83</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
@@ -88856,24 +88844,24 @@
       </c>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>PTHR13276</t>
+          <t>PTHR11661</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr">
         <is>
-          <t>PTHR13276</t>
+          <t>PTHR11661</t>
         </is>
       </c>
     </row>
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>P09435</t>
+          <t>P39704</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>Q10265</t>
+          <t>O13770</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
@@ -88888,24 +88876,24 @@
       </c>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>PTHR19375</t>
+          <t>PTHR22811</t>
         </is>
       </c>
       <c r="F2780" t="inlineStr">
         <is>
-          <t>PTHR19375</t>
+          <t>PTHR22811</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>P33328</t>
+          <t>P40079</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>Q92356</t>
+          <t>Q09713</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
@@ -88920,24 +88908,24 @@
       </c>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>PTHR45701</t>
+          <t>PTHR13237</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr">
         <is>
-          <t>PTHR45701</t>
+          <t>PTHR13237</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>P0CX56</t>
+          <t>Q00711</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>P0CT66</t>
+          <t>Q9UTJ7</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
@@ -88952,24 +88940,24 @@
       </c>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR11632</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR11632</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>P32486</t>
+          <t>P04807</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>O13941</t>
+          <t>Q09756</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
@@ -88984,24 +88972,24 @@
       </c>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>PTHR31361</t>
+          <t>PTHR19443</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr">
         <is>
-          <t>PTHR31361</t>
+          <t>PTHR19443</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>P0C2H6</t>
+          <t>P0CX56</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>O14388</t>
+          <t>P0CT66</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
@@ -89016,24 +89004,24 @@
       </c>
       <c r="E2784" t="inlineStr">
         <is>
-          <t>PTHR10497</t>
+          <t>PTHR10871</t>
         </is>
       </c>
       <c r="F2784" t="inlineStr">
         <is>
-          <t>PTHR10497</t>
+          <t>PTHR10871</t>
         </is>
       </c>
     </row>
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>Q06151</t>
+          <t>P49090</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>Q9P7C9</t>
+          <t>P78753</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
@@ -89048,24 +89036,24 @@
       </c>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>PTHR12978</t>
+          <t>PTHR11772</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr">
         <is>
-          <t>PTHR12978</t>
+          <t>PTHR11772</t>
         </is>
       </c>
     </row>
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>P33202</t>
+          <t>P37012</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>Q10435</t>
+          <t>O74374</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
@@ -89080,24 +89068,24 @@
       </c>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>PTHR45670</t>
+          <t>PTHR22573</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr">
         <is>
-          <t>PTHR45670</t>
+          <t>PTHR22573</t>
         </is>
       </c>
     </row>
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>P43634</t>
+          <t>P53319</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>O74915</t>
+          <t>P78812</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
@@ -89112,24 +89100,24 @@
       </c>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>PTHR31313</t>
+          <t>PTHR11811</t>
         </is>
       </c>
       <c r="F2787" t="inlineStr">
         <is>
-          <t>PTHR31313</t>
+          <t>PTHR11811</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>P0CX40</t>
+          <t>P0CX26</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>Q9P7B2</t>
+          <t>O94686</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
@@ -89144,24 +89132,24 @@
       </c>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>PTHR10394</t>
+          <t>PTHR48188</t>
         </is>
       </c>
       <c r="F2788" t="inlineStr">
         <is>
-          <t>PTHR10394</t>
+          <t>PTHR48188</t>
         </is>
       </c>
     </row>
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>P40312</t>
+          <t>P0CX45</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>O94391</t>
+          <t>P0CT72</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
@@ -89176,24 +89164,24 @@
       </c>
       <c r="E2789" t="inlineStr">
         <is>
-          <t>PTHR19359</t>
+          <t>PTHR13691</t>
         </is>
       </c>
       <c r="F2789" t="inlineStr">
         <is>
-          <t>PTHR19359</t>
+          <t>PTHR13691</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>P0CX35</t>
+          <t>P0CX45</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>Q9P4W9</t>
+          <t>P0CT71</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
@@ -89208,24 +89196,24 @@
       </c>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>PTHR11581</t>
+          <t>PTHR13691</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr">
         <is>
-          <t>PTHR11581</t>
+          <t>PTHR13691</t>
         </is>
       </c>
     </row>
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>P36086</t>
+          <t>P0CX45</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>Q7Z9I3</t>
+          <t>P0CT70</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
@@ -89240,24 +89228,24 @@
       </c>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>PTHR43544</t>
+          <t>PTHR13691</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr">
         <is>
-          <t>PTHR43544</t>
+          <t>PTHR13691</t>
         </is>
       </c>
     </row>
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>P32857</t>
+          <t>P0CX43</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
         <is>
-          <t>O13989</t>
+          <t>O74836</t>
         </is>
       </c>
       <c r="C2792" t="inlineStr">
@@ -89272,24 +89260,24 @@
       </c>
       <c r="E2792" t="inlineStr">
         <is>
-          <t>PTHR21229</t>
+          <t>PTHR23105</t>
         </is>
       </c>
       <c r="F2792" t="inlineStr">
         <is>
-          <t>PTHR21229</t>
+          <t>PTHR23105</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>P38555</t>
+          <t>P53283</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
         <is>
-          <t>P17610</t>
+          <t>Q7Z9I0</t>
         </is>
       </c>
       <c r="C2793" t="inlineStr">
@@ -89304,24 +89292,24 @@
       </c>
       <c r="E2793" t="inlineStr">
         <is>
-          <t>PTHR47979</t>
+          <t>PTHR23502</t>
         </is>
       </c>
       <c r="F2793" t="inlineStr">
         <is>
-          <t>PTHR47979</t>
+          <t>PTHR23502</t>
         </is>
       </c>
     </row>
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>Q05584</t>
+          <t>P46990</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
         <is>
-          <t>Q9UT36</t>
+          <t>O14339</t>
         </is>
       </c>
       <c r="C2794" t="inlineStr">
@@ -89336,24 +89324,24 @@
       </c>
       <c r="E2794" t="inlineStr">
         <is>
-          <t>PTHR11935</t>
+          <t>PTHR11593</t>
         </is>
       </c>
       <c r="F2794" t="inlineStr">
         <is>
-          <t>PTHR11935</t>
+          <t>PTHR11593</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>Q06406</t>
+          <t>Q08910</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
         <is>
-          <t>Q9UUI1</t>
+          <t>Q9P7U4</t>
         </is>
       </c>
       <c r="C2795" t="inlineStr">
@@ -89366,26 +89354,18 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2795" t="inlineStr">
-        <is>
-          <t>PTHR11021</t>
-        </is>
-      </c>
-      <c r="F2795" t="inlineStr">
-        <is>
-          <t>PTHR11021</t>
-        </is>
-      </c>
+      <c r="E2795" t="inlineStr"/>
+      <c r="F2795" t="inlineStr"/>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>P53320</t>
+          <t>Q3E7A9</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
         <is>
-          <t>Q9P7X9</t>
+          <t>G2TRJ8</t>
         </is>
       </c>
       <c r="C2796" t="inlineStr">
@@ -89400,24 +89380,24 @@
       </c>
       <c r="E2796" t="inlineStr">
         <is>
-          <t>PTHR45760</t>
+          <t>PTHR15590</t>
         </is>
       </c>
       <c r="F2796" t="inlineStr">
         <is>
-          <t>PTHR45760</t>
+          <t>PTHR15590</t>
         </is>
       </c>
     </row>
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>Q03640</t>
+          <t>P17076</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>O14065</t>
+          <t>O13672</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
@@ -89432,24 +89412,24 @@
       </c>
       <c r="E2797" t="inlineStr">
         <is>
-          <t>PTHR46980</t>
+          <t>PTHR23105</t>
         </is>
       </c>
       <c r="F2797" t="inlineStr">
         <is>
-          <t>PTHR46980</t>
+          <t>PTHR23105</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>P38717</t>
+          <t>Q06188</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>O13818</t>
+          <t>O59676</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
@@ -89462,26 +89442,18 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>PTHR14248</t>
-        </is>
-      </c>
-      <c r="F2798" t="inlineStr">
-        <is>
-          <t>PTHR14248</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
+      <c r="F2798" t="inlineStr"/>
     </row>
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>P40567</t>
+          <t>Q08913</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
         <is>
-          <t>Q7LL14</t>
+          <t>P0CU20</t>
         </is>
       </c>
       <c r="C2799" t="inlineStr">
@@ -89494,18 +89466,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2799" t="inlineStr"/>
-      <c r="F2799" t="inlineStr"/>
+      <c r="E2799" t="inlineStr">
+        <is>
+          <t>PTHR28259</t>
+        </is>
+      </c>
+      <c r="F2799" t="inlineStr">
+        <is>
+          <t>PTHR28259</t>
+        </is>
+      </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>P0CX84</t>
+          <t>Q08913</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>O74904</t>
+          <t>P0CU19</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
@@ -89520,24 +89500,24 @@
       </c>
       <c r="E2800" t="inlineStr">
         <is>
-          <t>PTHR45722</t>
+          <t>PTHR28259</t>
         </is>
       </c>
       <c r="F2800" t="inlineStr">
         <is>
-          <t>PTHR45722</t>
+          <t>PTHR28259</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>P39105</t>
+          <t>P04912</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>P0CU03</t>
+          <t>P04909</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
@@ -89552,24 +89532,24 @@
       </c>
       <c r="E2801" t="inlineStr">
         <is>
-          <t>PTHR10728</t>
+          <t>PTHR23430</t>
         </is>
       </c>
       <c r="F2801" t="inlineStr">
         <is>
-          <t>PTHR10728</t>
+          <t>PTHR23430</t>
         </is>
       </c>
     </row>
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>P39105</t>
+          <t>Q8TGJ3</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>P0CU02</t>
+          <t>G2TRS3</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
@@ -89584,24 +89564,24 @@
       </c>
       <c r="E2802" t="inlineStr">
         <is>
-          <t>PTHR10728</t>
+          <t>PTHR13229</t>
         </is>
       </c>
       <c r="F2802" t="inlineStr">
         <is>
-          <t>PTHR10728</t>
+          <t>PTHR13229</t>
         </is>
       </c>
     </row>
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>Q03919</t>
+          <t>P0CX42</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>O14399</t>
+          <t>P0CT61</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
@@ -89616,24 +89596,24 @@
       </c>
       <c r="E2803" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR11761</t>
         </is>
       </c>
       <c r="F2803" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR11761</t>
         </is>
       </c>
     </row>
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>P39926</t>
+          <t>P0CX42</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>Q9USH7</t>
+          <t>P0CT60</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
@@ -89648,24 +89628,24 @@
       </c>
       <c r="E2804" t="inlineStr">
         <is>
-          <t>PTHR19957</t>
+          <t>PTHR11761</t>
         </is>
       </c>
       <c r="F2804" t="inlineStr">
         <is>
-          <t>PTHR19957</t>
+          <t>PTHR11761</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>P0CX55</t>
+          <t>P05626</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>P0CT67</t>
+          <t>O94373</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
@@ -89680,24 +89660,24 @@
       </c>
       <c r="E2805" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR12733</t>
         </is>
       </c>
       <c r="F2805" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR12733</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>P0CX55</t>
+          <t>P38555</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>P0CT66</t>
+          <t>P17610</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
@@ -89712,24 +89692,24 @@
       </c>
       <c r="E2806" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR47979</t>
         </is>
       </c>
       <c r="F2806" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR47979</t>
         </is>
       </c>
     </row>
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>P14284</t>
+          <t>Q03640</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>Q9P6L6</t>
+          <t>O14065</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
@@ -89744,24 +89724,24 @@
       </c>
       <c r="E2807" t="inlineStr">
         <is>
-          <t>PTHR45812</t>
+          <t>PTHR46980</t>
         </is>
       </c>
       <c r="F2807" t="inlineStr">
         <is>
-          <t>PTHR45812</t>
+          <t>PTHR46980</t>
         </is>
       </c>
     </row>
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>P0CX24</t>
+          <t>P0CX38</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>P0CT69</t>
+          <t>Q9C0Z7</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
@@ -89776,24 +89756,24 @@
       </c>
       <c r="E2808" t="inlineStr">
         <is>
-          <t>PTHR10052</t>
+          <t>PTHR11502</t>
         </is>
       </c>
       <c r="F2808" t="inlineStr">
         <is>
-          <t>PTHR10052</t>
+          <t>PTHR11502</t>
         </is>
       </c>
     </row>
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>P0CX24</t>
+          <t>P41816</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
         <is>
-          <t>P0CT68</t>
+          <t>Q09671</t>
         </is>
       </c>
       <c r="C2809" t="inlineStr">
@@ -89808,24 +89788,24 @@
       </c>
       <c r="E2809" t="inlineStr">
         <is>
-          <t>PTHR10052</t>
+          <t>PTHR22893</t>
         </is>
       </c>
       <c r="F2809" t="inlineStr">
         <is>
-          <t>PTHR10052</t>
+          <t>PTHR22893</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>Q03390</t>
+          <t>P39101</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>O74422</t>
+          <t>Q10209</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
@@ -89840,24 +89820,24 @@
       </c>
       <c r="E2810" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR45006</t>
         </is>
       </c>
       <c r="F2810" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR45006</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>P28625</t>
+          <t>P02829</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>O42909</t>
+          <t>P41887</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
@@ -89872,24 +89852,24 @@
       </c>
       <c r="E2811" t="inlineStr">
         <is>
-          <t>PTHR11695</t>
+          <t>PTHR11528</t>
         </is>
       </c>
       <c r="F2811" t="inlineStr">
         <is>
-          <t>PTHR44013</t>
+          <t>PTHR11528</t>
         </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>P0C0W1</t>
+          <t>Q05902</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
         <is>
-          <t>P0CT59</t>
+          <t>Q9US04</t>
         </is>
       </c>
       <c r="C2812" t="inlineStr">
@@ -89904,24 +89884,24 @@
       </c>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>PTHR11758</t>
+          <t>PTHR11686</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr">
         <is>
-          <t>PTHR11758</t>
+          <t>PTHR11686</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>P0CX42</t>
+          <t>P0CX50</t>
         </is>
       </c>
       <c r="B2813" t="inlineStr">
         <is>
-          <t>P0CT61</t>
+          <t>Q8TFH1</t>
         </is>
       </c>
       <c r="C2813" t="inlineStr">
@@ -89936,24 +89916,24 @@
       </c>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR10934</t>
         </is>
       </c>
       <c r="F2813" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR10934</t>
         </is>
       </c>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>P0CX42</t>
+          <t>P53507</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>P0CT60</t>
+          <t>O42999</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
@@ -89968,24 +89948,24 @@
       </c>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR34944</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR34944</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>P0CX50</t>
+          <t>P0CX24</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>Q8TFH1</t>
+          <t>P0CT69</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
@@ -90000,24 +89980,24 @@
       </c>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>PTHR10934</t>
+          <t>PTHR10052</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr">
         <is>
-          <t>PTHR10934</t>
+          <t>PTHR10052</t>
         </is>
       </c>
     </row>
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>P0CH09</t>
+          <t>P0CX24</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>P0CH07</t>
+          <t>P0CT68</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
@@ -90032,24 +90012,24 @@
       </c>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR10052</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR10052</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>Q08634</t>
+          <t>P0CX47</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>P87055</t>
+          <t>P0CT74</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
@@ -90064,24 +90044,24 @@
       </c>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>PTHR28110</t>
+          <t>PTHR10744</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr">
         <is>
-          <t>PTHR28110</t>
+          <t>PTHR10744</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>P37012</t>
+          <t>P49166</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>O74374</t>
+          <t>P59289</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
@@ -90096,24 +90076,24 @@
       </c>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>PTHR22573</t>
+          <t>PTHR10768</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr">
         <is>
-          <t>PTHR22573</t>
+          <t>PTHR10768</t>
         </is>
       </c>
     </row>
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>Q8TGJ3</t>
+          <t>P50094</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>G2TRS3</t>
+          <t>O14344</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
@@ -90128,24 +90108,24 @@
       </c>
       <c r="E2819" t="inlineStr">
         <is>
-          <t>PTHR13229</t>
+          <t>PTHR11911</t>
         </is>
       </c>
       <c r="F2819" t="inlineStr">
         <is>
-          <t>PTHR13229</t>
+          <t>PTHR11911</t>
         </is>
       </c>
     </row>
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>Q08910</t>
+          <t>P05318</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>Q9P7U4</t>
+          <t>P17476</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
@@ -90158,18 +90138,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2820" t="inlineStr"/>
-      <c r="F2820" t="inlineStr"/>
+      <c r="E2820" t="inlineStr">
+        <is>
+          <t>PTHR45696</t>
+        </is>
+      </c>
+      <c r="F2820" t="inlineStr">
+        <is>
+          <t>PTHR45696</t>
+        </is>
+      </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>P41056</t>
+          <t>P32836</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>Q9USX4</t>
+          <t>P28748</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
@@ -90184,24 +90172,24 @@
       </c>
       <c r="E2821" t="inlineStr">
         <is>
-          <t>PTHR10902</t>
+          <t>PTHR24071</t>
         </is>
       </c>
       <c r="F2821" t="inlineStr">
         <is>
-          <t>PTHR10902</t>
+          <t>PTHR24071</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>P10823</t>
+          <t>P40482</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>P27584</t>
+          <t>Q9UUI5</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
@@ -90216,24 +90204,24 @@
       </c>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>PTHR10218</t>
+          <t>PTHR13803</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr">
         <is>
-          <t>PTHR10218</t>
+          <t>PTHR13803</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>Q08913</t>
+          <t>P11655</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>P0CU20</t>
+          <t>Q10659</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
@@ -90248,24 +90236,24 @@
       </c>
       <c r="E2823" t="inlineStr">
         <is>
-          <t>PTHR28259</t>
+          <t>PTHR23284</t>
         </is>
       </c>
       <c r="F2823" t="inlineStr">
         <is>
-          <t>PTHR28259</t>
+          <t>PTHR23284</t>
         </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>Q08913</t>
+          <t>P54780</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>P0CU19</t>
+          <t>O74895</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
@@ -90280,24 +90268,24 @@
       </c>
       <c r="E2824" t="inlineStr">
         <is>
-          <t>PTHR28259</t>
+          <t>PTHR11847</t>
         </is>
       </c>
       <c r="F2824" t="inlineStr">
         <is>
-          <t>PTHR28259</t>
+          <t>PTHR11847</t>
         </is>
       </c>
     </row>
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>P43557</t>
+          <t>P38789</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>O14042</t>
+          <t>O14206</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
@@ -90312,24 +90300,24 @@
       </c>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>PTHR14360</t>
+          <t>PTHR12661</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr">
         <is>
-          <t>PTHR14360</t>
+          <t>PTHR12661</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>P0CX38</t>
+          <t>P00856</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>Q9C0Z7</t>
+          <t>P21536</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
@@ -90344,24 +90332,24 @@
       </c>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>PTHR11502</t>
+          <t>PTHR36101</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr">
         <is>
-          <t>PTHR11502</t>
+          <t>PTHR36101</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>P0CX48</t>
+          <t>P22217</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>P0CT74</t>
+          <t>O14463</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
@@ -90376,12 +90364,12 @@
       </c>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>PTHR10744</t>
+          <t>PTHR10438</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr">
         <is>
-          <t>PTHR10744</t>
+          <t>PTHR10438</t>
         </is>
       </c>
     </row>
@@ -90393,7 +90381,7 @@
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>P0CT73</t>
+          <t>P0CT74</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
@@ -90420,12 +90408,12 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>P17891</t>
+          <t>P0CX48</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>Q9USP6</t>
+          <t>P0CT73</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
@@ -90440,24 +90428,24 @@
       </c>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>PTHR10639</t>
+          <t>PTHR10744</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr">
         <is>
-          <t>PTHR10639</t>
+          <t>PTHR10744</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>Q02771</t>
+          <t>P24031</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>C6Y4C1</t>
+          <t>P08091</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
@@ -90472,24 +90460,24 @@
       </c>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>PTHR28163</t>
+          <t>PTHR20963</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr">
         <is>
-          <t>PTHR28163</t>
+          <t>PTHR20963</t>
         </is>
       </c>
     </row>
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>O75012</t>
+          <t>P53144</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>O13973</t>
+          <t>P87242</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
@@ -90504,24 +90492,24 @@
       </c>
       <c r="E2831" t="inlineStr">
         <is>
-          <t>PTHR28066</t>
+          <t>PTHR11845</t>
         </is>
       </c>
       <c r="F2831" t="inlineStr">
         <is>
-          <t>PTHR28066</t>
+          <t>PTHR11845</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>Q04371</t>
+          <t>Q08193</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>Q9UT55</t>
+          <t>Q9Y7Y7</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
@@ -90536,24 +90524,24 @@
       </c>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>PTHR12260</t>
+          <t>PTHR31468</t>
         </is>
       </c>
       <c r="F2832" t="inlineStr">
         <is>
-          <t>PTHR12260</t>
+          <t>PTHR31468</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>P22217</t>
+          <t>P53727</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>O14463</t>
+          <t>O14242</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
@@ -90568,24 +90556,24 @@
       </c>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>PTHR10438</t>
+          <t>PTHR10534</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr">
         <is>
-          <t>PTHR10438</t>
+          <t>PTHR10534</t>
         </is>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>Q08919</t>
+          <t>P14747</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>O43023</t>
+          <t>Q12705</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
@@ -90600,24 +90588,24 @@
       </c>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>PTHR10404</t>
+          <t>PTHR45673</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr">
         <is>
-          <t>PTHR10404</t>
+          <t>PTHR45673</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>P42839</t>
+          <t>P0CX77</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>Q9P7B3</t>
+          <t>P87015</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
@@ -90632,24 +90620,24 @@
       </c>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>PTHR31503</t>
+          <t>PTHR43828</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr">
         <is>
-          <t>PTHR31503</t>
+          <t>PTHR43828</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>P53283</t>
+          <t>P28625</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>Q7Z9I0</t>
+          <t>O42909</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
@@ -90664,24 +90652,24 @@
       </c>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>PTHR23502</t>
+          <t>PTHR11695</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr">
         <is>
-          <t>PTHR23502</t>
+          <t>PTHR44013</t>
         </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>P69850</t>
+          <t>P39529</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>P62505</t>
+          <t>O94569</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
@@ -90696,24 +90684,24 @@
       </c>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>PTHR28017</t>
+          <t>PTHR47540</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr">
         <is>
-          <t>PTHR28017</t>
+          <t>PTHR46910</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>P32479</t>
+          <t>P39010</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>P87314</t>
+          <t>Q09701</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
@@ -90728,24 +90716,24 @@
       </c>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>PTHR13831</t>
+          <t>PTHR24161</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr">
         <is>
-          <t>PTHR13831</t>
+          <t>PTHR24161</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>P0CX27</t>
+          <t>P0CX29</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>Q9UTI8</t>
+          <t>P0CT75</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
@@ -90760,24 +90748,24 @@
       </c>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>PTHR10369</t>
+          <t>PTHR11652</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr">
         <is>
-          <t>PTHR10369</t>
+          <t>PTHR11652</t>
         </is>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>Q04895</t>
+          <t>P53966</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>O14035</t>
+          <t>O94565</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
@@ -90792,24 +90780,24 @@
       </c>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>PTHR30618</t>
+          <t>PTHR31121</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr">
         <is>
-          <t>PTHR30618</t>
+          <t>PTHR31121</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>P0CX41</t>
+          <t>Q03835</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>P0CT61</t>
+          <t>O74790</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
@@ -90824,24 +90812,24 @@
       </c>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR10293</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR10293</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>P0CX53</t>
+          <t>P40464</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>P0CT83</t>
+          <t>O13660</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
@@ -90856,24 +90844,24 @@
       </c>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR45683</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR45683</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>Q12431</t>
+          <t>P00924</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>O59764</t>
+          <t>P40370</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
@@ -90888,24 +90876,24 @@
       </c>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>PTHR20994</t>
+          <t>PTHR11902</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr">
         <is>
-          <t>PTHR20994</t>
+          <t>PTHR11902</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>P29311</t>
+          <t>P0CX51</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>P42656</t>
+          <t>P0CT65</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
@@ -90920,24 +90908,24 @@
       </c>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>PTHR18860</t>
+          <t>PTHR21569</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr">
         <is>
-          <t>PTHR18860</t>
+          <t>PTHR21569</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>Q06405</t>
+          <t>P40567</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>O94377</t>
+          <t>Q7LL14</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
@@ -90950,26 +90938,18 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>PTHR28161</t>
-        </is>
-      </c>
-      <c r="F2845" t="inlineStr">
-        <is>
-          <t>PTHR28161</t>
-        </is>
-      </c>
+      <c r="E2845" t="inlineStr"/>
+      <c r="F2845" t="inlineStr"/>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>Q03322</t>
+          <t>P13045</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>Q9HGN3</t>
+          <t>Q9HDU2</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
@@ -90984,24 +90964,24 @@
       </c>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>PTHR19957</t>
+          <t>PTHR10457</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr">
         <is>
-          <t>PTHR19957</t>
+          <t>PTHR10457</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>P0CX46</t>
+          <t>P06367</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>P0CT71</t>
+          <t>P0CT57</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
@@ -91016,24 +90996,24 @@
       </c>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR11759</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR11759</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>P0CX46</t>
+          <t>P06367</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>P0CT70</t>
+          <t>P0CT56</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
@@ -91048,24 +91028,24 @@
       </c>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR11759</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR11759</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>P40185</t>
+          <t>Q06406</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>O43003</t>
+          <t>Q9UUI1</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
@@ -91080,24 +91060,24 @@
       </c>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>PTHR11803</t>
+          <t>PTHR11021</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr">
         <is>
-          <t>PTHR11803</t>
+          <t>PTHR11021</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>Q04272</t>
+          <t>P0CX78</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>O94318</t>
+          <t>P87015</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
@@ -91112,24 +91092,24 @@
       </c>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR43828</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR43828</t>
         </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>P35731</t>
+          <t>P0CX31</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>O42866</t>
+          <t>O59865</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
@@ -91144,24 +91124,24 @@
       </c>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>PTHR42760</t>
+          <t>PTHR10496</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr">
         <is>
-          <t>PTHR42760</t>
+          <t>PTHR10496</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>P11655</t>
+          <t>P35723</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>Q10659</t>
+          <t>O14290</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
@@ -91176,24 +91156,24 @@
       </c>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>PTHR23284</t>
+          <t>PTHR12701</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr">
         <is>
-          <t>PTHR23284</t>
+          <t>PTHR12701</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>Q00711</t>
+          <t>P33202</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>Q9UTJ7</t>
+          <t>Q10435</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
@@ -91208,24 +91188,24 @@
       </c>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>PTHR11632</t>
+          <t>PTHR45670</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr">
         <is>
-          <t>PTHR11632</t>
+          <t>PTHR45670</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>Q06631</t>
+          <t>P07281</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>Q9US05</t>
+          <t>P79016</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
@@ -91240,24 +91220,24 @@
       </c>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>PTHR15565</t>
+          <t>PTHR11710</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr">
         <is>
-          <t>PTHR15565</t>
+          <t>PTHR11710</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>P0CX79</t>
+          <t>P14284</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>P87015</t>
+          <t>Q9P6L6</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
@@ -91272,24 +91252,24 @@
       </c>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR45812</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR45812</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>P16862</t>
+          <t>P0CZ17</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>O42938</t>
+          <t>P87015</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
@@ -91304,24 +91284,24 @@
       </c>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>PTHR13697</t>
+          <t>PTHR43828</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr">
         <is>
-          <t>PTHR13697</t>
+          <t>PTHR43828</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>P0C074</t>
+          <t>P38374</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>Q9P7R6</t>
+          <t>G2TRT3</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
@@ -91336,24 +91316,20 @@
       </c>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>PTHR20978</t>
-        </is>
-      </c>
-      <c r="F2857" t="inlineStr">
-        <is>
-          <t>PTHR20978</t>
-        </is>
-      </c>
+          <t>PTHR15601</t>
+        </is>
+      </c>
+      <c r="F2857" t="inlineStr"/>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>Q05029</t>
+          <t>P40884</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>P87317</t>
+          <t>Q9P6J3</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
@@ -91368,24 +91344,24 @@
       </c>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>PTHR31975</t>
+          <t>PTHR10357</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr">
         <is>
-          <t>PTHR31975</t>
+          <t>PTHR10357</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>P30624</t>
+          <t>P19145</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>O60135</t>
+          <t>Q9URZ4</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
@@ -91400,24 +91376,24 @@
       </c>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>PTHR43272</t>
+          <t>PTHR43341</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr">
         <is>
-          <t>PTHR43272</t>
+          <t>PTHR43341</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>P50094</t>
+          <t>P02994</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>O14344</t>
+          <t>P0CT55</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
@@ -91432,24 +91408,24 @@
       </c>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>PTHR11911</t>
+          <t>PTHR23115</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr">
         <is>
-          <t>PTHR11911</t>
+          <t>PTHR23115</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>Q08193</t>
+          <t>P02994</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>Q9Y7Y7</t>
+          <t>P0CT53</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
@@ -91464,24 +91440,24 @@
       </c>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>PTHR31468</t>
+          <t>PTHR23115</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr">
         <is>
-          <t>PTHR31468</t>
+          <t>PTHR23115</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>P52871</t>
+          <t>P35179</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>O43002</t>
+          <t>Q09827</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
@@ -91496,24 +91472,24 @@
       </c>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>PTHR13509</t>
+          <t>PTHR12309</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr">
         <is>
-          <t>PTHR13509</t>
+          <t>PTHR12309</t>
         </is>
       </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>P49090</t>
+          <t>Q06405</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>P78753</t>
+          <t>O94377</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
@@ -91528,24 +91504,24 @@
       </c>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>PTHR11772</t>
+          <t>PTHR28161</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr">
         <is>
-          <t>PTHR11772</t>
+          <t>PTHR28161</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>P35723</t>
+          <t>P53304</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>O14290</t>
+          <t>Q09710</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
@@ -91560,24 +91536,24 @@
       </c>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>PTHR12701</t>
+          <t>PTHR28037</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr">
         <is>
-          <t>PTHR12701</t>
+          <t>PTHR28037</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>P14907</t>
+          <t>O13516</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>Q10168</t>
+          <t>O59675</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
@@ -91592,24 +91568,24 @@
       </c>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>PTHR12084</t>
+          <t>PTHR11831</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr">
         <is>
-          <t>PTHR12084</t>
+          <t>PTHR11831</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>P38151</t>
+          <t>Q07824</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>O74919</t>
+          <t>Q9Y7S4</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
@@ -91624,24 +91600,24 @@
       </c>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>PTHR10288</t>
+          <t>PTHR23502</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr">
         <is>
-          <t>PTHR10288</t>
+          <t>PTHR23502</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>P39101</t>
+          <t>P53305</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>Q10209</t>
+          <t>O14358</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
@@ -91656,24 +91632,24 @@
       </c>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>PTHR45006</t>
+          <t>PTHR13362</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr">
         <is>
-          <t>PTHR45006</t>
+          <t>PTHR13362</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>O13516</t>
+          <t>P30402</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>O59675</t>
+          <t>O94331</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
@@ -91688,24 +91664,24 @@
       </c>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>PTHR11831</t>
+          <t>PTHR46683</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr">
         <is>
-          <t>PTHR11831</t>
+          <t>PTHR46683</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>P53144</t>
+          <t>Q02753</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>P87242</t>
+          <t>Q9UUC1</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
@@ -91720,24 +91696,24 @@
       </c>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>PTHR11845</t>
+          <t>PTHR20981</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr">
         <is>
-          <t>PTHR11845</t>
+          <t>PTHR20981</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>P06169</t>
+          <t>Q03144</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>Q09737</t>
+          <t>Q9UTE4</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
@@ -91752,24 +91728,24 @@
       </c>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>PTHR43452</t>
+          <t>PTHR31559</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr">
         <is>
-          <t>PTHR43452</t>
+          <t>PTHR31559</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>Q07915</t>
+          <t>P43557</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>Q10353</t>
+          <t>O14042</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
@@ -91784,24 +91760,24 @@
       </c>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>PTHR10792</t>
+          <t>PTHR14360</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr">
         <is>
-          <t>PTHR10792</t>
+          <t>PTHR14360</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>P02994</t>
+          <t>P29311</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>P0CT55</t>
+          <t>P42656</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
@@ -91816,24 +91792,24 @@
       </c>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>PTHR23115</t>
+          <t>PTHR18860</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr">
         <is>
-          <t>PTHR23115</t>
+          <t>PTHR18860</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>P02994</t>
+          <t>Q02199</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>P0CT53</t>
+          <t>Q09793</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
@@ -91848,24 +91824,24 @@
       </c>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>PTHR23115</t>
+          <t>PTHR23198</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr">
         <is>
-          <t>PTHR23115</t>
+          <t>PTHR13437</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>P19145</t>
+          <t>P0CX35</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>Q9URZ4</t>
+          <t>Q9P4W9</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
@@ -91880,24 +91856,24 @@
       </c>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>PTHR43341</t>
+          <t>PTHR11581</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr">
         <is>
-          <t>PTHR43341</t>
+          <t>PTHR11581</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>P35497</t>
+          <t>P47131</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>P36624</t>
+          <t>Q9P7G3</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
@@ -91912,24 +91888,24 @@
       </c>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>PTHR43161</t>
+          <t>PTHR12668</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr">
         <is>
-          <t>PTHR43161</t>
+          <t>PTHR12668</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>P32793</t>
+          <t>P0CX83</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>Q9URW6</t>
+          <t>O42699</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
@@ -91944,24 +91920,24 @@
       </c>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>PTHR15629</t>
+          <t>PTHR10722</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr">
         <is>
-          <t>PTHR15629</t>
+          <t>PTHR10722</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>P05318</t>
+          <t>P46973</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>P17476</t>
+          <t>O36031</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
@@ -91976,24 +91952,24 @@
       </c>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>PTHR45696</t>
+          <t>PTHR13483</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr">
         <is>
-          <t>PTHR45696</t>
+          <t>PTHR13483</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>P36108</t>
+          <t>P14180</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>O14177</t>
+          <t>O74756</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
@@ -92008,24 +91984,24 @@
       </c>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>PTHR10476</t>
+          <t>PTHR22914</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr">
         <is>
-          <t>PTHR10476</t>
+          <t>PTHR22914</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>P00924</t>
+          <t>P69851</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>P40370</t>
+          <t>Q50HP4</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
@@ -92040,24 +92016,24 @@
       </c>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>PTHR11902</t>
+          <t>PTHR28222</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr">
         <is>
-          <t>PTHR11902</t>
+          <t>PTHR28222</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>P21672</t>
+          <t>P39105</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>P36602</t>
+          <t>P0CU03</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
@@ -92072,24 +92048,24 @@
       </c>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>PTHR11573</t>
+          <t>PTHR10728</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr">
         <is>
-          <t>PTHR11573</t>
+          <t>PTHR10728</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>P35179</t>
+          <t>P39105</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>Q09827</t>
+          <t>P0CU02</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
@@ -92104,24 +92080,24 @@
       </c>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>PTHR12309</t>
+          <t>PTHR10728</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr">
         <is>
-          <t>PTHR12309</t>
+          <t>PTHR10728</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>P39529</t>
+          <t>P87284</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>O94569</t>
+          <t>Q9C1W4</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
@@ -92136,24 +92112,24 @@
       </c>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>PTHR47540</t>
+          <t>PTHR21659</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr">
         <is>
-          <t>PTHR46910</t>
+          <t>PTHR21659</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>P40079</t>
+          <t>P32479</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>Q09713</t>
+          <t>P87314</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
@@ -92168,24 +92144,24 @@
       </c>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>PTHR13237</t>
+          <t>PTHR13831</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr">
         <is>
-          <t>PTHR13237</t>
+          <t>PTHR13831</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>P05626</t>
+          <t>P36114</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>O94373</t>
+          <t>O13693</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
@@ -92200,24 +92176,24 @@
       </c>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>PTHR12733</t>
+          <t>PTHR31859</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr">
         <is>
-          <t>PTHR12733</t>
+          <t>PTHR31859</t>
         </is>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>P0CX37</t>
+          <t>P21771</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>Q9C0Z7</t>
+          <t>O13602</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
@@ -92232,24 +92208,24 @@
       </c>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>PTHR11502</t>
+          <t>PTHR23321</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr">
         <is>
-          <t>PTHR11502</t>
+          <t>PTHR23321</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>P54780</t>
+          <t>Q02771</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>O74895</t>
+          <t>C6Y4C1</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
@@ -92264,24 +92240,24 @@
       </c>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>PTHR11847</t>
+          <t>PTHR28163</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr">
         <is>
-          <t>PTHR11847</t>
+          <t>PTHR28163</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>P53903</t>
+          <t>P41930</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>Q9P6S6</t>
+          <t>P0CT96</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
@@ -92296,24 +92272,24 @@
       </c>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>PTHR28199</t>
+          <t>PTHR31686</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr">
         <is>
-          <t>PTHR28199</t>
+          <t>PTHR31686</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>Q02793</t>
+          <t>P41930</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>Q09150</t>
+          <t>P0CT95</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
@@ -92328,24 +92304,24 @@
       </c>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>PTHR44090</t>
+          <t>PTHR31686</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr">
         <is>
-          <t>PTHR44090</t>
+          <t>PTHR31686</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>P19146</t>
+          <t>P41930</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>P36579</t>
+          <t>P0CT94</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
@@ -92360,24 +92336,24 @@
       </c>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>PTHR11711</t>
+          <t>PTHR31686</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr">
         <is>
-          <t>PTHR11711</t>
+          <t>PTHR31686</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>P0CX39</t>
+          <t>P32907</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>Q9P7B2</t>
+          <t>O14201</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
@@ -92392,24 +92368,24 @@
       </c>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>PTHR10394</t>
+          <t>PTHR31123</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr">
         <is>
-          <t>PTHR10394</t>
+          <t>PTHR31123</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>P38202</t>
+          <t>P17891</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>Q96WW3</t>
+          <t>Q9USP6</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
@@ -92424,24 +92400,24 @@
       </c>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>PTHR28219</t>
+          <t>PTHR10639</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr">
         <is>
-          <t>PTHR28219</t>
+          <t>PTHR10639</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>P40464</t>
+          <t>Q2V2P5</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>O13660</t>
+          <t>Q9USW6</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
@@ -92454,26 +92430,22 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>PTHR45683</t>
-        </is>
-      </c>
+      <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr">
         <is>
-          <t>PTHR45683</t>
+          <t>PTHR15039</t>
         </is>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>P49626</t>
+          <t>P42834</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>Q9P784</t>
+          <t>Q9UT37</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
@@ -92488,24 +92460,24 @@
       </c>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>PTHR19431</t>
+          <t>PTHR12763</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr">
         <is>
-          <t>PTHR19431</t>
+          <t>PTHR12763</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>P0C0X0</t>
+          <t>P06169</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>P0CT80</t>
+          <t>Q09737</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
@@ -92520,24 +92492,24 @@
       </c>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>PTHR10769</t>
+          <t>PTHR43452</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr">
         <is>
-          <t>PTHR10769</t>
+          <t>PTHR43452</t>
         </is>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>P0C0X0</t>
+          <t>P21672</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>P0CT79</t>
+          <t>P36602</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
@@ -92552,24 +92524,24 @@
       </c>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>PTHR10769</t>
+          <t>PTHR11573</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr">
         <is>
-          <t>PTHR10769</t>
+          <t>PTHR11573</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>Q2V2P5</t>
+          <t>P43682</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>Q9USW6</t>
+          <t>Q09730</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
@@ -92582,22 +92554,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr">
+        <is>
+          <t>PTHR12791</t>
+        </is>
+      </c>
       <c r="F2896" t="inlineStr">
         <is>
-          <t>PTHR15039</t>
+          <t>PTHR12791</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>P81450</t>
+          <t>P52871</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>O13931</t>
+          <t>O43002</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
@@ -92612,24 +92588,24 @@
       </c>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>PTHR28060</t>
+          <t>PTHR13509</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr">
         <is>
-          <t>PTHR28060</t>
+          <t>PTHR13509</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>P35196</t>
+          <t>P29547</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>O14171</t>
+          <t>P40921</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
@@ -92644,24 +92620,24 @@
       </c>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>PTHR10291</t>
+          <t>PTHR43986</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr">
         <is>
-          <t>PTHR10291</t>
+          <t>PTHR43986</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>P39010</t>
+          <t>P16862</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>Q09701</t>
+          <t>O42938</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
@@ -92676,24 +92652,24 @@
       </c>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>PTHR24161</t>
+          <t>PTHR13697</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr">
         <is>
-          <t>PTHR24161</t>
+          <t>PTHR13697</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>P42834</t>
+          <t>P23501</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>Q9UT37</t>
+          <t>Q9P6N5</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
@@ -92708,24 +92684,24 @@
       </c>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>PTHR12763</t>
+          <t>PTHR14969</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr">
         <is>
-          <t>PTHR12763</t>
+          <t>PTHR14969</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>P40884</t>
+          <t>P0CX34</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>Q9P6J3</t>
+          <t>P0CT63</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
@@ -92740,24 +92716,24 @@
       </c>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>PTHR10357</t>
+          <t>PTHR12650</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr">
         <is>
-          <t>PTHR10357</t>
+          <t>PTHR12650</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>Q06563</t>
+          <t>P81450</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>O14142</t>
+          <t>O13931</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
@@ -92772,24 +92748,24 @@
       </c>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>PTHR11266</t>
+          <t>PTHR28060</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr">
         <is>
-          <t>PTHR11266</t>
+          <t>PTHR28060</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>Q02820</t>
+          <t>Q03322</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>C6Y4B6</t>
+          <t>Q9HGN3</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
@@ -92804,24 +92780,24 @@
       </c>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>PTHR28011</t>
+          <t>PTHR19957</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr">
         <is>
-          <t>PTHR28011</t>
+          <t>PTHR19957</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>P36533</t>
+          <t>Q06490</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>O74394</t>
+          <t>O94266</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
@@ -92836,24 +92812,24 @@
       </c>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>PTHR47037</t>
+          <t>PTHR20858</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr">
         <is>
-          <t>PTHR15238</t>
+          <t>PTHR20858</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>P32907</t>
+          <t>P35842</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>O14201</t>
+          <t>Q01682</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
@@ -92868,24 +92844,24 @@
       </c>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>PTHR31123</t>
+          <t>PTHR20963</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr">
         <is>
-          <t>PTHR31123</t>
+          <t>PTHR20963</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>Q03835</t>
+          <t>P23585</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>O74790</t>
+          <t>O74849</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
@@ -92900,24 +92876,24 @@
       </c>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>PTHR10293</t>
+          <t>PTHR48022</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr">
         <is>
-          <t>PTHR10293</t>
+          <t>PTHR48022</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>P0C0V8</t>
+          <t>Q05029</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>P05764</t>
+          <t>P87317</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
@@ -92932,24 +92908,24 @@
       </c>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>PTHR10442</t>
+          <t>PTHR31975</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr">
         <is>
-          <t>PTHR10442</t>
+          <t>PTHR31975</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>Q04477</t>
+          <t>Q6Q560</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>Q9UST6</t>
+          <t>O60068</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
@@ -92964,24 +92940,24 @@
       </c>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>PTHR22142</t>
+          <t>PTHR13166</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr">
         <is>
-          <t>PTHR22142</t>
+          <t>PTHR13166</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>P0CX31</t>
+          <t>P42839</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>O59865</t>
+          <t>Q9P7B3</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
@@ -92996,24 +92972,24 @@
       </c>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>PTHR10496</t>
+          <t>PTHR31503</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr">
         <is>
-          <t>PTHR10496</t>
+          <t>PTHR31503</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>P41930</t>
+          <t>Q07915</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>P0CT96</t>
+          <t>Q10353</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
@@ -93028,24 +93004,24 @@
       </c>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>PTHR31686</t>
+          <t>PTHR10792</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr">
         <is>
-          <t>PTHR31686</t>
+          <t>PTHR10792</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>P41930</t>
+          <t>P0CH08</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>P0CT95</t>
+          <t>P0CH06</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
@@ -93060,24 +93036,24 @@
       </c>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>PTHR31686</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr">
         <is>
-          <t>PTHR31686</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>P41930</t>
+          <t>Q04477</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>P0CT94</t>
+          <t>Q9UST6</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
@@ -93092,24 +93068,24 @@
       </c>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>PTHR31686</t>
+          <t>PTHR22142</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr">
         <is>
-          <t>PTHR31686</t>
+          <t>PTHR22142</t>
         </is>
       </c>
     </row>
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>Q12250</t>
+          <t>P35196</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>P0CU17</t>
+          <t>O14171</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
@@ -93124,24 +93100,24 @@
       </c>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>PTHR10855</t>
+          <t>PTHR10291</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr">
         <is>
-          <t>PTHR10855</t>
+          <t>PTHR10291</t>
         </is>
       </c>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>P46675</t>
+          <t>Q03880</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>Q09933</t>
+          <t>Q9P7Y3</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
@@ -93156,24 +93132,24 @@
       </c>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>PTHR12609</t>
+          <t>PTHR28251</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr">
         <is>
-          <t>PTHR12609</t>
+          <t>PTHR28251</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>P0C2H9</t>
+          <t>Q3E846</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>Q9URX6</t>
+          <t>G2TRP6</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
@@ -93188,24 +93164,24 @@
       </c>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>PTHR10956</t>
+          <t>PTHR47677</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr">
         <is>
-          <t>PTHR10956</t>
+          <t>PTHR47677</t>
         </is>
       </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>P41806</t>
+          <t>P53188</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>C6Y4C8</t>
+          <t>Q9UTJ4</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
@@ -93218,26 +93194,18 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>PTHR31792</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr">
-        <is>
-          <t>PTHR31792</t>
-        </is>
-      </c>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="inlineStr"/>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>P04912</t>
+          <t>P0C0V8</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>P04909</t>
+          <t>P05764</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
@@ -93252,24 +93220,24 @@
       </c>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>PTHR23430</t>
+          <t>PTHR10442</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr">
         <is>
-          <t>PTHR23430</t>
+          <t>PTHR10442</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>Q03144</t>
+          <t>P0CX79</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>Q9UTE4</t>
+          <t>P87015</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
@@ -93284,24 +93252,24 @@
       </c>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>PTHR31559</t>
+          <t>PTHR43828</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr">
         <is>
-          <t>PTHR31559</t>
+          <t>PTHR43828</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>Q06597</t>
+          <t>P0CX52</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>Q8WZK3</t>
+          <t>P0CT65</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
@@ -93316,24 +93284,24 @@
       </c>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>PTHR10828</t>
+          <t>PTHR21569</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr">
         <is>
-          <t>PTHR10828</t>
+          <t>PTHR21569</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>Q06490</t>
+          <t>Q04272</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>O94266</t>
+          <t>O94318</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
@@ -93348,24 +93316,24 @@
       </c>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>PTHR20858</t>
+          <t>PTHR22761</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr">
         <is>
-          <t>PTHR20858</t>
+          <t>PTHR22761</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>Q02821</t>
+          <t>Q08634</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>O94374</t>
+          <t>P87055</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
@@ -93380,24 +93348,24 @@
       </c>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>PTHR23316</t>
+          <t>PTHR28110</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr">
         <is>
-          <t>PTHR23316</t>
+          <t>PTHR28110</t>
         </is>
       </c>
     </row>
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>P40482</t>
+          <t>P0C0X0</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>Q9UUI5</t>
+          <t>P0CT80</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
@@ -93412,24 +93380,24 @@
       </c>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>PTHR13803</t>
+          <t>PTHR10769</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr">
         <is>
-          <t>PTHR13803</t>
+          <t>PTHR10769</t>
         </is>
       </c>
     </row>
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>P43682</t>
+          <t>P0C0X0</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>Q09730</t>
+          <t>P0CT79</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
@@ -93444,24 +93412,24 @@
       </c>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>PTHR12791</t>
+          <t>PTHR10769</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr">
         <is>
-          <t>PTHR12791</t>
+          <t>PTHR10769</t>
         </is>
       </c>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>P38925</t>
+          <t>P40312</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>Q10177</t>
+          <t>O94391</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
@@ -93476,24 +93444,24 @@
       </c>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>PTHR11706</t>
+          <t>PTHR19359</t>
         </is>
       </c>
       <c r="F2924" t="inlineStr">
         <is>
-          <t>PTHR11706</t>
+          <t>PTHR19359</t>
         </is>
       </c>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>P52892</t>
+          <t>P09733</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>Q10334</t>
+          <t>P04689</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
@@ -93508,24 +93476,24 @@
       </c>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>PTHR11751</t>
+          <t>PTHR11588</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr">
         <is>
-          <t>PTHR11751</t>
+          <t>PTHR11588</t>
         </is>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>P0CX30</t>
+          <t>P32793</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>P0CT76</t>
+          <t>Q9URW6</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
@@ -93540,24 +93508,24 @@
       </c>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR15629</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR15629</t>
         </is>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>P0CX30</t>
+          <t>P38724</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>P0CT75</t>
+          <t>O74395</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
@@ -93572,24 +93540,24 @@
       </c>
       <c r="E2927" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR23501</t>
         </is>
       </c>
       <c r="F2927" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR23501</t>
         </is>
       </c>
     </row>
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>Q06188</t>
+          <t>P43634</t>
         </is>
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>O59676</t>
+          <t>O74915</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
@@ -93602,18 +93570,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2928" t="inlineStr"/>
-      <c r="F2928" t="inlineStr"/>
+      <c r="E2928" t="inlineStr">
+        <is>
+          <t>PTHR31313</t>
+        </is>
+      </c>
+      <c r="F2928" t="inlineStr">
+        <is>
+          <t>PTHR31313</t>
+        </is>
+      </c>
     </row>
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>P38374</t>
+          <t>Q08919</t>
         </is>
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>G2TRT3</t>
+          <t>O43023</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
@@ -93628,20 +93604,24 @@
       </c>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>PTHR15601</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
+          <t>PTHR10404</t>
+        </is>
+      </c>
+      <c r="F2929" t="inlineStr">
+        <is>
+          <t>PTHR10404</t>
+        </is>
+      </c>
     </row>
     <row r="2930">
       <c r="A2930" t="inlineStr">
         <is>
-          <t>P0CX45</t>
+          <t>P0CX46</t>
         </is>
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>P0CT72</t>
+          <t>P0CT71</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
@@ -93668,12 +93648,12 @@
     <row r="2931">
       <c r="A2931" t="inlineStr">
         <is>
-          <t>P0CX45</t>
+          <t>P0CX46</t>
         </is>
       </c>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>P0CT71</t>
+          <t>P0CT70</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
@@ -93700,12 +93680,12 @@
     <row r="2932">
       <c r="A2932" t="inlineStr">
         <is>
-          <t>P0CX45</t>
+          <t>Q03390</t>
         </is>
       </c>
       <c r="B2932" t="inlineStr">
         <is>
-          <t>P0CT70</t>
+          <t>O74422</t>
         </is>
       </c>
       <c r="C2932" t="inlineStr">
@@ -93720,24 +93700,24 @@
       </c>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR22761</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR22761</t>
         </is>
       </c>
     </row>
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>Q03880</t>
+          <t>P0CX55</t>
         </is>
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>Q9P7Y3</t>
+          <t>P0CT67</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr">
@@ -93752,24 +93732,24 @@
       </c>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>PTHR28251</t>
+          <t>PTHR10871</t>
         </is>
       </c>
       <c r="F2933" t="inlineStr">
         <is>
-          <t>PTHR28251</t>
+          <t>PTHR10871</t>
         </is>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>P07560</t>
+          <t>P0CX55</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>P17609</t>
+          <t>P0CT66</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr">
@@ -93784,24 +93764,24 @@
       </c>
       <c r="E2934" t="inlineStr">
         <is>
-          <t>PTHR47980</t>
+          <t>PTHR10871</t>
         </is>
       </c>
       <c r="F2934" t="inlineStr">
         <is>
-          <t>PTHR47980</t>
+          <t>PTHR10871</t>
         </is>
       </c>
     </row>
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>P0CX29</t>
+          <t>P0CX33</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>P0CT75</t>
+          <t>P0CT63</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
@@ -93816,24 +93796,24 @@
       </c>
       <c r="E2935" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR12650</t>
         </is>
       </c>
       <c r="F2935" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR12650</t>
         </is>
       </c>
     </row>
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>P40098</t>
+          <t>P0CX33</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>P87124</t>
+          <t>P0CT62</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
@@ -93848,20 +93828,24 @@
       </c>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>PTHR47260</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
+          <t>PTHR12650</t>
+        </is>
+      </c>
+      <c r="F2936" t="inlineStr">
+        <is>
+          <t>PTHR12650</t>
+        </is>
+      </c>
     </row>
     <row r="2937">
       <c r="A2937" t="inlineStr">
         <is>
-          <t>P42847</t>
+          <t>P36533</t>
         </is>
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>O13882</t>
+          <t>O74394</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
@@ -93876,24 +93860,24 @@
       </c>
       <c r="E2937" t="inlineStr">
         <is>
-          <t>PTHR11759</t>
+          <t>PTHR47037</t>
         </is>
       </c>
       <c r="F2937" t="inlineStr">
         <is>
-          <t>PTHR11759</t>
+          <t>PTHR15238</t>
         </is>
       </c>
     </row>
     <row r="2938">
       <c r="A2938" t="inlineStr">
         <is>
-          <t>P53966</t>
+          <t>P53320</t>
         </is>
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>O94565</t>
+          <t>Q9P7X9</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
@@ -93908,24 +93892,24 @@
       </c>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>PTHR31121</t>
+          <t>PTHR45760</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr">
         <is>
-          <t>PTHR31121</t>
+          <t>PTHR45760</t>
         </is>
       </c>
     </row>
     <row r="2939">
       <c r="A2939" t="inlineStr">
         <is>
-          <t>P0CX34</t>
+          <t>P0CX53</t>
         </is>
       </c>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>P0CT63</t>
+          <t>P0CT83</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr">
@@ -93940,24 +93924,24 @@
       </c>
       <c r="E2939" t="inlineStr">
         <is>
-          <t>PTHR12650</t>
+          <t>PTHR11661</t>
         </is>
       </c>
       <c r="F2939" t="inlineStr">
         <is>
-          <t>PTHR12650</t>
+          <t>PTHR11661</t>
         </is>
       </c>
     </row>
     <row r="2940">
       <c r="A2940" t="inlineStr">
         <is>
-          <t>P53188</t>
+          <t>P41806</t>
         </is>
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>Q9UTJ4</t>
+          <t>C6Y4C8</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
@@ -93970,18 +93954,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2940" t="inlineStr"/>
-      <c r="F2940" t="inlineStr"/>
+      <c r="E2940" t="inlineStr">
+        <is>
+          <t>PTHR31792</t>
+        </is>
+      </c>
+      <c r="F2940" t="inlineStr">
+        <is>
+          <t>PTHR31792</t>
+        </is>
+      </c>
     </row>
     <row r="2941">
       <c r="A2941" t="inlineStr">
         <is>
-          <t>P35842</t>
+          <t>P53903</t>
         </is>
       </c>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>Q01682</t>
+          <t>Q9P6S6</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr">
@@ -93996,24 +93988,24 @@
       </c>
       <c r="E2941" t="inlineStr">
         <is>
-          <t>PTHR20963</t>
+          <t>PTHR28199</t>
         </is>
       </c>
       <c r="F2941" t="inlineStr">
         <is>
-          <t>PTHR20963</t>
+          <t>PTHR28199</t>
         </is>
       </c>
     </row>
     <row r="2942">
       <c r="A2942" t="inlineStr">
         <is>
-          <t>P53319</t>
+          <t>P53299</t>
         </is>
       </c>
       <c r="B2942" t="inlineStr">
         <is>
-          <t>P78812</t>
+          <t>Q10481</t>
         </is>
       </c>
       <c r="C2942" t="inlineStr">
@@ -94028,24 +94020,24 @@
       </c>
       <c r="E2942" t="inlineStr">
         <is>
-          <t>PTHR11811</t>
+          <t>PTHR19338</t>
         </is>
       </c>
       <c r="F2942" t="inlineStr">
         <is>
-          <t>PTHR11811</t>
+          <t>PTHR19338</t>
         </is>
       </c>
     </row>
     <row r="2943">
       <c r="A2943" t="inlineStr">
         <is>
-          <t>P0CX47</t>
+          <t>P39926</t>
         </is>
       </c>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>P0CT74</t>
+          <t>Q9USH7</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr">
@@ -94060,24 +94052,24 @@
       </c>
       <c r="E2943" t="inlineStr">
         <is>
-          <t>PTHR10744</t>
+          <t>PTHR19957</t>
         </is>
       </c>
       <c r="F2943" t="inlineStr">
         <is>
-          <t>PTHR10744</t>
+          <t>PTHR19957</t>
         </is>
       </c>
     </row>
     <row r="2944">
       <c r="A2944" t="inlineStr">
         <is>
-          <t>P32573</t>
+          <t>Q02820</t>
         </is>
       </c>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>Q9URX0</t>
+          <t>C6Y4B6</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
@@ -94092,24 +94084,24 @@
       </c>
       <c r="E2944" t="inlineStr">
         <is>
-          <t>PTHR43296</t>
+          <t>PTHR28011</t>
         </is>
       </c>
       <c r="F2944" t="inlineStr">
         <is>
-          <t>PTHR24321</t>
+          <t>PTHR28011</t>
         </is>
       </c>
     </row>
     <row r="2945">
       <c r="A2945" t="inlineStr">
         <is>
-          <t>Q3E846</t>
+          <t>O14455</t>
         </is>
       </c>
       <c r="B2945" t="inlineStr">
         <is>
-          <t>G2TRP6</t>
+          <t>O94658</t>
         </is>
       </c>
       <c r="C2945" t="inlineStr">
@@ -94124,24 +94116,24 @@
       </c>
       <c r="E2945" t="inlineStr">
         <is>
-          <t>PTHR47677</t>
+          <t>PTHR10114</t>
         </is>
       </c>
       <c r="F2945" t="inlineStr">
         <is>
-          <t>PTHR47677</t>
+          <t>PTHR10114</t>
         </is>
       </c>
     </row>
     <row r="2946">
       <c r="A2946" t="inlineStr">
         <is>
-          <t>P17709</t>
+          <t>O75012</t>
         </is>
       </c>
       <c r="B2946" t="inlineStr">
         <is>
-          <t>P50521</t>
+          <t>O13973</t>
         </is>
       </c>
       <c r="C2946" t="inlineStr">
@@ -94156,24 +94148,24 @@
       </c>
       <c r="E2946" t="inlineStr">
         <is>
-          <t>PTHR19443</t>
+          <t>PTHR28066</t>
         </is>
       </c>
       <c r="F2946" t="inlineStr">
         <is>
-          <t>PTHR19443</t>
+          <t>PTHR28066</t>
         </is>
       </c>
     </row>
     <row r="2947">
       <c r="A2947" t="inlineStr">
         <is>
-          <t>Q03667</t>
+          <t>P07560</t>
         </is>
       </c>
       <c r="B2947" t="inlineStr">
         <is>
-          <t>Q10307</t>
+          <t>P17609</t>
         </is>
       </c>
       <c r="C2947" t="inlineStr">
@@ -94188,24 +94180,24 @@
       </c>
       <c r="E2947" t="inlineStr">
         <is>
-          <t>PTHR13523</t>
+          <t>PTHR47980</t>
         </is>
       </c>
       <c r="F2947" t="inlineStr">
         <is>
-          <t>PTHR13523</t>
+          <t>PTHR47980</t>
         </is>
       </c>
     </row>
     <row r="2948">
       <c r="A2948" t="inlineStr">
         <is>
-          <t>P0CX83</t>
+          <t>P14907</t>
         </is>
       </c>
       <c r="B2948" t="inlineStr">
         <is>
-          <t>O42699</t>
+          <t>Q10168</t>
         </is>
       </c>
       <c r="C2948" t="inlineStr">
@@ -94220,24 +94212,24 @@
       </c>
       <c r="E2948" t="inlineStr">
         <is>
-          <t>PTHR10722</t>
+          <t>PTHR12084</t>
         </is>
       </c>
       <c r="F2948" t="inlineStr">
         <is>
-          <t>PTHR10722</t>
+          <t>PTHR12084</t>
         </is>
       </c>
     </row>
     <row r="2949">
       <c r="A2949" t="inlineStr">
         <is>
-          <t>P47131</t>
+          <t>P02400</t>
         </is>
       </c>
       <c r="B2949" t="inlineStr">
         <is>
-          <t>Q9P7G3</t>
+          <t>P17478</t>
         </is>
       </c>
       <c r="C2949" t="inlineStr">
@@ -94252,24 +94244,24 @@
       </c>
       <c r="E2949" t="inlineStr">
         <is>
-          <t>PTHR12668</t>
+          <t>PTHR21141</t>
         </is>
       </c>
       <c r="F2949" t="inlineStr">
         <is>
-          <t>PTHR12668</t>
+          <t>PTHR21141</t>
         </is>
       </c>
     </row>
     <row r="2950">
       <c r="A2950" t="inlineStr">
         <is>
-          <t>P38724</t>
+          <t>Q06709</t>
         </is>
       </c>
       <c r="B2950" t="inlineStr">
         <is>
-          <t>O74395</t>
+          <t>O59811</t>
         </is>
       </c>
       <c r="C2950" t="inlineStr">
@@ -94284,24 +94276,24 @@
       </c>
       <c r="E2950" t="inlineStr">
         <is>
-          <t>PTHR23501</t>
+          <t>PTHR13182</t>
         </is>
       </c>
       <c r="F2950" t="inlineStr">
         <is>
-          <t>PTHR23501</t>
+          <t>PTHR13182</t>
         </is>
       </c>
     </row>
     <row r="2951">
       <c r="A2951" t="inlineStr">
         <is>
-          <t>P0CZ17</t>
+          <t>P35497</t>
         </is>
       </c>
       <c r="B2951" t="inlineStr">
         <is>
-          <t>P87015</t>
+          <t>P36624</t>
         </is>
       </c>
       <c r="C2951" t="inlineStr">
@@ -94316,24 +94308,24 @@
       </c>
       <c r="E2951" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR43161</t>
         </is>
       </c>
       <c r="F2951" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR43161</t>
         </is>
       </c>
     </row>
     <row r="2952">
       <c r="A2952" t="inlineStr">
         <is>
-          <t>Q3E7A9</t>
+          <t>P33328</t>
         </is>
       </c>
       <c r="B2952" t="inlineStr">
         <is>
-          <t>G2TRJ8</t>
+          <t>Q92356</t>
         </is>
       </c>
       <c r="C2952" t="inlineStr">
@@ -94348,24 +94340,24 @@
       </c>
       <c r="E2952" t="inlineStr">
         <is>
-          <t>PTHR15590</t>
+          <t>PTHR45701</t>
         </is>
       </c>
       <c r="F2952" t="inlineStr">
         <is>
-          <t>PTHR15590</t>
+          <t>PTHR45701</t>
         </is>
       </c>
     </row>
     <row r="2953">
       <c r="A2953" t="inlineStr">
         <is>
-          <t>P46990</t>
+          <t>P40583</t>
         </is>
       </c>
       <c r="B2953" t="inlineStr">
         <is>
-          <t>O14339</t>
+          <t>P32834</t>
         </is>
       </c>
       <c r="C2953" t="inlineStr">
@@ -94380,24 +94372,24 @@
       </c>
       <c r="E2953" t="inlineStr">
         <is>
-          <t>PTHR11593</t>
+          <t>PTHR47965</t>
         </is>
       </c>
       <c r="F2953" t="inlineStr">
         <is>
-          <t>PTHR11593</t>
+          <t>PTHR47966</t>
         </is>
       </c>
     </row>
     <row r="2954">
       <c r="A2954" t="inlineStr">
         <is>
-          <t>P38789</t>
+          <t>P38925</t>
         </is>
       </c>
       <c r="B2954" t="inlineStr">
         <is>
-          <t>O14206</t>
+          <t>Q10177</t>
         </is>
       </c>
       <c r="C2954" t="inlineStr">
@@ -94412,24 +94404,24 @@
       </c>
       <c r="E2954" t="inlineStr">
         <is>
-          <t>PTHR12661</t>
+          <t>PTHR11706</t>
         </is>
       </c>
       <c r="F2954" t="inlineStr">
         <is>
-          <t>PTHR12661</t>
+          <t>PTHR11706</t>
         </is>
       </c>
     </row>
     <row r="2955">
       <c r="A2955" t="inlineStr">
         <is>
-          <t>P09733</t>
+          <t>Q3E7A4</t>
         </is>
       </c>
       <c r="B2955" t="inlineStr">
         <is>
-          <t>P04689</t>
+          <t>O74347</t>
         </is>
       </c>
       <c r="C2955" t="inlineStr">
@@ -94444,24 +94436,24 @@
       </c>
       <c r="E2955" t="inlineStr">
         <is>
-          <t>PTHR11588</t>
+          <t>PTHR22977</t>
         </is>
       </c>
       <c r="F2955" t="inlineStr">
         <is>
-          <t>PTHR11588</t>
+          <t>PTHR22977</t>
         </is>
       </c>
     </row>
     <row r="2956">
       <c r="A2956" t="inlineStr">
         <is>
-          <t>P21771</t>
+          <t>P52892</t>
         </is>
       </c>
       <c r="B2956" t="inlineStr">
         <is>
-          <t>O13602</t>
+          <t>Q10334</t>
         </is>
       </c>
       <c r="C2956" t="inlineStr">
@@ -94476,24 +94468,24 @@
       </c>
       <c r="E2956" t="inlineStr">
         <is>
-          <t>PTHR23321</t>
+          <t>PTHR11751</t>
         </is>
       </c>
       <c r="F2956" t="inlineStr">
         <is>
-          <t>PTHR23321</t>
+          <t>PTHR11751</t>
         </is>
       </c>
     </row>
     <row r="2957">
       <c r="A2957" t="inlineStr">
         <is>
-          <t>P87284</t>
+          <t>P32857</t>
         </is>
       </c>
       <c r="B2957" t="inlineStr">
         <is>
-          <t>Q9C1W4</t>
+          <t>O13989</t>
         </is>
       </c>
       <c r="C2957" t="inlineStr">
@@ -94508,24 +94500,24 @@
       </c>
       <c r="E2957" t="inlineStr">
         <is>
-          <t>PTHR21659</t>
+          <t>PTHR21229</t>
         </is>
       </c>
       <c r="F2957" t="inlineStr">
         <is>
-          <t>PTHR21659</t>
+          <t>PTHR21229</t>
         </is>
       </c>
     </row>
     <row r="2958">
       <c r="A2958" t="inlineStr">
         <is>
-          <t>P0CX43</t>
+          <t>P46675</t>
         </is>
       </c>
       <c r="B2958" t="inlineStr">
         <is>
-          <t>O74836</t>
+          <t>Q09933</t>
         </is>
       </c>
       <c r="C2958" t="inlineStr">
@@ -94540,24 +94532,24 @@
       </c>
       <c r="E2958" t="inlineStr">
         <is>
-          <t>PTHR23105</t>
+          <t>PTHR12609</t>
         </is>
       </c>
       <c r="F2958" t="inlineStr">
         <is>
-          <t>PTHR23105</t>
+          <t>PTHR12609</t>
         </is>
       </c>
     </row>
     <row r="2959">
       <c r="A2959" t="inlineStr">
         <is>
-          <t>P06367</t>
+          <t>P38717</t>
         </is>
       </c>
       <c r="B2959" t="inlineStr">
         <is>
-          <t>P0CT57</t>
+          <t>O13818</t>
         </is>
       </c>
       <c r="C2959" t="inlineStr">
@@ -94572,24 +94564,24 @@
       </c>
       <c r="E2959" t="inlineStr">
         <is>
-          <t>PTHR11759</t>
+          <t>PTHR14248</t>
         </is>
       </c>
       <c r="F2959" t="inlineStr">
         <is>
-          <t>PTHR11759</t>
+          <t>PTHR14248</t>
         </is>
       </c>
     </row>
     <row r="2960">
       <c r="A2960" t="inlineStr">
         <is>
-          <t>P06367</t>
+          <t>P40414</t>
         </is>
       </c>
       <c r="B2960" t="inlineStr">
         <is>
-          <t>P0CT56</t>
+          <t>Q02088</t>
         </is>
       </c>
       <c r="C2960" t="inlineStr">
@@ -94604,24 +94596,24 @@
       </c>
       <c r="E2960" t="inlineStr">
         <is>
-          <t>PTHR11759</t>
+          <t>PTHR19269</t>
         </is>
       </c>
       <c r="F2960" t="inlineStr">
         <is>
-          <t>PTHR11759</t>
+          <t>PTHR19269</t>
         </is>
       </c>
     </row>
     <row r="2961">
       <c r="A2961" t="inlineStr">
         <is>
-          <t>P38072</t>
+          <t>P32486</t>
         </is>
       </c>
       <c r="B2961" t="inlineStr">
         <is>
-          <t>O42899</t>
+          <t>O13941</t>
         </is>
       </c>
       <c r="C2961" t="inlineStr">
@@ -94636,24 +94628,24 @@
       </c>
       <c r="E2961" t="inlineStr">
         <is>
-          <t>PTHR12151</t>
+          <t>PTHR31361</t>
         </is>
       </c>
       <c r="F2961" t="inlineStr">
         <is>
-          <t>PTHR12151</t>
+          <t>PTHR31361</t>
         </is>
       </c>
     </row>
     <row r="2962">
       <c r="A2962" t="inlineStr">
         <is>
-          <t>P22289</t>
+          <t>P11075</t>
         </is>
       </c>
       <c r="B2962" t="inlineStr">
         <is>
-          <t>O74433</t>
+          <t>Q9UT02</t>
         </is>
       </c>
       <c r="C2962" t="inlineStr">
@@ -94668,24 +94660,24 @@
       </c>
       <c r="E2962" t="inlineStr">
         <is>
-          <t>PTHR12980</t>
+          <t>PTHR10663</t>
         </is>
       </c>
       <c r="F2962" t="inlineStr">
         <is>
-          <t>PTHR12980</t>
+          <t>PTHR10663</t>
         </is>
       </c>
     </row>
     <row r="2963">
       <c r="A2963" t="inlineStr">
         <is>
-          <t>P01097</t>
+          <t>P32601</t>
         </is>
       </c>
       <c r="B2963" t="inlineStr">
         <is>
-          <t>O74523</t>
+          <t>O43057</t>
         </is>
       </c>
       <c r="C2963" t="inlineStr">
@@ -94698,18 +94690,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2963" t="inlineStr"/>
-      <c r="F2963" t="inlineStr"/>
+      <c r="E2963" t="inlineStr">
+        <is>
+          <t>PTHR13276</t>
+        </is>
+      </c>
+      <c r="F2963" t="inlineStr">
+        <is>
+          <t>PTHR13276</t>
+        </is>
+      </c>
     </row>
     <row r="2964">
       <c r="A2964" t="inlineStr">
         <is>
-          <t>P29547</t>
+          <t>P0CX39</t>
         </is>
       </c>
       <c r="B2964" t="inlineStr">
         <is>
-          <t>P40921</t>
+          <t>Q9P7B2</t>
         </is>
       </c>
       <c r="C2964" t="inlineStr">
@@ -94724,24 +94724,24 @@
       </c>
       <c r="E2964" t="inlineStr">
         <is>
-          <t>PTHR43986</t>
+          <t>PTHR10394</t>
         </is>
       </c>
       <c r="F2964" t="inlineStr">
         <is>
-          <t>PTHR43986</t>
+          <t>PTHR10394</t>
         </is>
       </c>
     </row>
     <row r="2965">
       <c r="A2965" t="inlineStr">
         <is>
-          <t>P0CX51</t>
+          <t>P38072</t>
         </is>
       </c>
       <c r="B2965" t="inlineStr">
         <is>
-          <t>P0CT65</t>
+          <t>O42899</t>
         </is>
       </c>
       <c r="C2965" t="inlineStr">
@@ -94756,24 +94756,24 @@
       </c>
       <c r="E2965" t="inlineStr">
         <is>
-          <t>PTHR21569</t>
+          <t>PTHR12151</t>
         </is>
       </c>
       <c r="F2965" t="inlineStr">
         <is>
-          <t>PTHR21569</t>
+          <t>PTHR12151</t>
         </is>
       </c>
     </row>
     <row r="2966">
       <c r="A2966" t="inlineStr">
         <is>
-          <t>P02400</t>
+          <t>P42847</t>
         </is>
       </c>
       <c r="B2966" t="inlineStr">
         <is>
-          <t>P17478</t>
+          <t>O13882</t>
         </is>
       </c>
       <c r="C2966" t="inlineStr">
@@ -94788,24 +94788,24 @@
       </c>
       <c r="E2966" t="inlineStr">
         <is>
-          <t>PTHR21141</t>
+          <t>PTHR11759</t>
         </is>
       </c>
       <c r="F2966" t="inlineStr">
         <is>
-          <t>PTHR21141</t>
+          <t>PTHR11759</t>
         </is>
       </c>
     </row>
     <row r="2967">
       <c r="A2967" t="inlineStr">
         <is>
-          <t>O14455</t>
+          <t>P35731</t>
         </is>
       </c>
       <c r="B2967" t="inlineStr">
         <is>
-          <t>O94658</t>
+          <t>O42866</t>
         </is>
       </c>
       <c r="C2967" t="inlineStr">
@@ -94820,24 +94820,24 @@
       </c>
       <c r="E2967" t="inlineStr">
         <is>
-          <t>PTHR10114</t>
+          <t>PTHR42760</t>
         </is>
       </c>
       <c r="F2967" t="inlineStr">
         <is>
-          <t>PTHR10114</t>
+          <t>PTHR42760</t>
         </is>
       </c>
     </row>
     <row r="2968">
       <c r="A2968" t="inlineStr">
         <is>
-          <t>P36114</t>
+          <t>Q04895</t>
         </is>
       </c>
       <c r="B2968" t="inlineStr">
         <is>
-          <t>O13693</t>
+          <t>O14035</t>
         </is>
       </c>
       <c r="C2968" t="inlineStr">
@@ -94852,24 +94852,24 @@
       </c>
       <c r="E2968" t="inlineStr">
         <is>
-          <t>PTHR31859</t>
+          <t>PTHR30618</t>
         </is>
       </c>
       <c r="F2968" t="inlineStr">
         <is>
-          <t>PTHR31859</t>
+          <t>PTHR30618</t>
         </is>
       </c>
     </row>
     <row r="2969">
       <c r="A2969" t="inlineStr">
         <is>
-          <t>P41816</t>
+          <t>Q3E834</t>
         </is>
       </c>
       <c r="B2969" t="inlineStr">
         <is>
-          <t>Q09671</t>
+          <t>O13825</t>
         </is>
       </c>
       <c r="C2969" t="inlineStr">
@@ -94884,24 +94884,24 @@
       </c>
       <c r="E2969" t="inlineStr">
         <is>
-          <t>PTHR22893</t>
+          <t>PTHR15858</t>
         </is>
       </c>
       <c r="F2969" t="inlineStr">
         <is>
-          <t>PTHR22893</t>
+          <t>PTHR15858</t>
         </is>
       </c>
     </row>
     <row r="2970">
       <c r="A2970" t="inlineStr">
         <is>
-          <t>P46973</t>
+          <t>P0C074</t>
         </is>
       </c>
       <c r="B2970" t="inlineStr">
         <is>
-          <t>O36031</t>
+          <t>Q9P7R6</t>
         </is>
       </c>
       <c r="C2970" t="inlineStr">
@@ -94916,24 +94916,24 @@
       </c>
       <c r="E2970" t="inlineStr">
         <is>
-          <t>PTHR13483</t>
+          <t>PTHR20978</t>
         </is>
       </c>
       <c r="F2970" t="inlineStr">
         <is>
-          <t>PTHR13483</t>
+          <t>PTHR20978</t>
         </is>
       </c>
     </row>
     <row r="2971">
       <c r="A2971" t="inlineStr">
         <is>
-          <t>P0CX33</t>
+          <t>P0CX84</t>
         </is>
       </c>
       <c r="B2971" t="inlineStr">
         <is>
-          <t>P0CT63</t>
+          <t>O74904</t>
         </is>
       </c>
       <c r="C2971" t="inlineStr">
@@ -94948,24 +94948,24 @@
       </c>
       <c r="E2971" t="inlineStr">
         <is>
-          <t>PTHR12650</t>
+          <t>PTHR45722</t>
         </is>
       </c>
       <c r="F2971" t="inlineStr">
         <is>
-          <t>PTHR12650</t>
+          <t>PTHR45722</t>
         </is>
       </c>
     </row>
     <row r="2972">
       <c r="A2972" t="inlineStr">
         <is>
-          <t>P0CX33</t>
+          <t>P0CX82</t>
         </is>
       </c>
       <c r="B2972" t="inlineStr">
         <is>
-          <t>P0CT62</t>
+          <t>O42699</t>
         </is>
       </c>
       <c r="C2972" t="inlineStr">
@@ -94980,24 +94980,24 @@
       </c>
       <c r="E2972" t="inlineStr">
         <is>
-          <t>PTHR12650</t>
+          <t>PTHR10722</t>
         </is>
       </c>
       <c r="F2972" t="inlineStr">
         <is>
-          <t>PTHR12650</t>
+          <t>PTHR10722</t>
         </is>
       </c>
     </row>
     <row r="2973">
       <c r="A2973" t="inlineStr">
         <is>
-          <t>P00360</t>
+          <t>P0CX27</t>
         </is>
       </c>
       <c r="B2973" t="inlineStr">
         <is>
-          <t>P78958</t>
+          <t>Q9UTI8</t>
         </is>
       </c>
       <c r="C2973" t="inlineStr">
@@ -95012,24 +95012,24 @@
       </c>
       <c r="E2973" t="inlineStr">
         <is>
-          <t>PTHR10836</t>
+          <t>PTHR10369</t>
         </is>
       </c>
       <c r="F2973" t="inlineStr">
         <is>
-          <t>PTHR10836</t>
+          <t>PTHR10369</t>
         </is>
       </c>
     </row>
     <row r="2974">
       <c r="A2974" t="inlineStr">
         <is>
-          <t>P49166</t>
+          <t>P0C2H6</t>
         </is>
       </c>
       <c r="B2974" t="inlineStr">
         <is>
-          <t>P59289</t>
+          <t>O14388</t>
         </is>
       </c>
       <c r="C2974" t="inlineStr">
@@ -95044,24 +95044,24 @@
       </c>
       <c r="E2974" t="inlineStr">
         <is>
-          <t>PTHR10768</t>
+          <t>PTHR10497</t>
         </is>
       </c>
       <c r="F2974" t="inlineStr">
         <is>
-          <t>PTHR10768</t>
+          <t>PTHR10497</t>
         </is>
       </c>
     </row>
     <row r="2975">
       <c r="A2975" t="inlineStr">
         <is>
-          <t>Q6Q560</t>
+          <t>P22289</t>
         </is>
       </c>
       <c r="B2975" t="inlineStr">
         <is>
-          <t>O60068</t>
+          <t>O74433</t>
         </is>
       </c>
       <c r="C2975" t="inlineStr">
@@ -95076,24 +95076,24 @@
       </c>
       <c r="E2975" t="inlineStr">
         <is>
-          <t>PTHR13166</t>
+          <t>PTHR12980</t>
         </is>
       </c>
       <c r="F2975" t="inlineStr">
         <is>
-          <t>PTHR13166</t>
+          <t>PTHR12980</t>
         </is>
       </c>
     </row>
     <row r="2976">
       <c r="A2976" t="inlineStr">
         <is>
-          <t>P30402</t>
+          <t>P0CH09</t>
         </is>
       </c>
       <c r="B2976" t="inlineStr">
         <is>
-          <t>O94331</t>
+          <t>P0CH07</t>
         </is>
       </c>
       <c r="C2976" t="inlineStr">
@@ -95108,24 +95108,24 @@
       </c>
       <c r="E2976" t="inlineStr">
         <is>
-          <t>PTHR46683</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F2976" t="inlineStr">
         <is>
-          <t>PTHR46683</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="2977">
       <c r="A2977" t="inlineStr">
         <is>
-          <t>P0CX82</t>
+          <t>Q03919</t>
         </is>
       </c>
       <c r="B2977" t="inlineStr">
         <is>
-          <t>O42699</t>
+          <t>O14399</t>
         </is>
       </c>
       <c r="C2977" t="inlineStr">
@@ -95140,24 +95140,24 @@
       </c>
       <c r="E2977" t="inlineStr">
         <is>
-          <t>PTHR10722</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F2977" t="inlineStr">
         <is>
-          <t>PTHR10722</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="2978">
       <c r="A2978" t="inlineStr">
         <is>
-          <t>P32836</t>
+          <t>P0CX40</t>
         </is>
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>P28748</t>
+          <t>Q9P7B2</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr">
@@ -95172,24 +95172,24 @@
       </c>
       <c r="E2978" t="inlineStr">
         <is>
-          <t>PTHR24071</t>
+          <t>PTHR10394</t>
         </is>
       </c>
       <c r="F2978" t="inlineStr">
         <is>
-          <t>PTHR24071</t>
+          <t>PTHR10394</t>
         </is>
       </c>
     </row>
     <row r="2979">
       <c r="A2979" t="inlineStr">
         <is>
-          <t>Q07824</t>
+          <t>Q06151</t>
         </is>
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>Q9Y7S4</t>
+          <t>Q9P7C9</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr">
@@ -95204,24 +95204,24 @@
       </c>
       <c r="E2979" t="inlineStr">
         <is>
-          <t>PTHR23502</t>
+          <t>PTHR12978</t>
         </is>
       </c>
       <c r="F2979" t="inlineStr">
         <is>
-          <t>PTHR23502</t>
+          <t>PTHR12978</t>
         </is>
       </c>
     </row>
     <row r="2980">
       <c r="A2980" t="inlineStr">
         <is>
-          <t>P11075</t>
+          <t>Q05584</t>
         </is>
       </c>
       <c r="B2980" t="inlineStr">
         <is>
-          <t>Q9UT02</t>
+          <t>Q9UT36</t>
         </is>
       </c>
       <c r="C2980" t="inlineStr">
@@ -95236,24 +95236,24 @@
       </c>
       <c r="E2980" t="inlineStr">
         <is>
-          <t>PTHR10663</t>
+          <t>PTHR11935</t>
         </is>
       </c>
       <c r="F2980" t="inlineStr">
         <is>
-          <t>PTHR10663</t>
+          <t>PTHR11935</t>
         </is>
       </c>
     </row>
     <row r="2981">
       <c r="A2981" t="inlineStr">
         <is>
-          <t>P0CX78</t>
+          <t>Q03667</t>
         </is>
       </c>
       <c r="B2981" t="inlineStr">
         <is>
-          <t>P87015</t>
+          <t>Q10307</t>
         </is>
       </c>
       <c r="C2981" t="inlineStr">
@@ -95268,24 +95268,24 @@
       </c>
       <c r="E2981" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR13523</t>
         </is>
       </c>
       <c r="F2981" t="inlineStr">
         <is>
-          <t>PTHR43828</t>
+          <t>PTHR13523</t>
         </is>
       </c>
     </row>
     <row r="2982">
       <c r="A2982" t="inlineStr">
         <is>
-          <t>P17076</t>
+          <t>P14126</t>
         </is>
       </c>
       <c r="B2982" t="inlineStr">
         <is>
-          <t>O13672</t>
+          <t>P40372</t>
         </is>
       </c>
       <c r="C2982" t="inlineStr">
@@ -95300,12 +95300,12 @@
       </c>
       <c r="E2982" t="inlineStr">
         <is>
-          <t>PTHR23105</t>
+          <t>PTHR11363</t>
         </is>
       </c>
       <c r="F2982" t="inlineStr">
         <is>
-          <t>PTHR23105</t>
+          <t>PTHR11363</t>
         </is>
       </c>
     </row>
@@ -95344,12 +95344,12 @@
     <row r="2984">
       <c r="A2984" t="inlineStr">
         <is>
-          <t>Q04338</t>
+          <t>P10823</t>
         </is>
       </c>
       <c r="B2984" t="inlineStr">
         <is>
-          <t>P78768</t>
+          <t>P27584</t>
         </is>
       </c>
       <c r="C2984" t="inlineStr">
@@ -95364,24 +95364,24 @@
       </c>
       <c r="E2984" t="inlineStr">
         <is>
-          <t>PTHR21230</t>
+          <t>PTHR10218</t>
         </is>
       </c>
       <c r="F2984" t="inlineStr">
         <is>
-          <t>PTHR21230</t>
+          <t>PTHR10218</t>
         </is>
       </c>
     </row>
     <row r="2985">
       <c r="A2985" t="inlineStr">
         <is>
-          <t>P23501</t>
+          <t>P0CX36</t>
         </is>
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>Q9P6N5</t>
+          <t>Q9P4W9</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr">
@@ -95396,24 +95396,24 @@
       </c>
       <c r="E2985" t="inlineStr">
         <is>
-          <t>PTHR14969</t>
+          <t>PTHR11581</t>
         </is>
       </c>
       <c r="F2985" t="inlineStr">
         <is>
-          <t>PTHR14969</t>
+          <t>PTHR11581</t>
         </is>
       </c>
     </row>
     <row r="2986">
       <c r="A2986" t="inlineStr">
         <is>
-          <t>P00856</t>
+          <t>Q04338</t>
         </is>
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>P21536</t>
+          <t>P78768</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr">
@@ -95428,24 +95428,24 @@
       </c>
       <c r="E2986" t="inlineStr">
         <is>
-          <t>PTHR36101</t>
+          <t>PTHR21230</t>
         </is>
       </c>
       <c r="F2986" t="inlineStr">
         <is>
-          <t>PTHR36101</t>
+          <t>PTHR21230</t>
         </is>
       </c>
     </row>
     <row r="2987">
       <c r="A2987" t="inlineStr">
         <is>
-          <t>P0CH08</t>
+          <t>Q08108</t>
         </is>
       </c>
       <c r="B2987" t="inlineStr">
         <is>
-          <t>P0CH06</t>
+          <t>O13857</t>
         </is>
       </c>
       <c r="C2987" t="inlineStr">
@@ -95460,24 +95460,24 @@
       </c>
       <c r="E2987" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR10728</t>
         </is>
       </c>
       <c r="F2987" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR10728</t>
         </is>
       </c>
     </row>
     <row r="2988">
       <c r="A2988" t="inlineStr">
         <is>
-          <t>Q3E834</t>
+          <t>P0C0W1</t>
         </is>
       </c>
       <c r="B2988" t="inlineStr">
         <is>
-          <t>O13825</t>
+          <t>P0CT59</t>
         </is>
       </c>
       <c r="C2988" t="inlineStr">
@@ -95492,24 +95492,24 @@
       </c>
       <c r="E2988" t="inlineStr">
         <is>
-          <t>PTHR15858</t>
+          <t>PTHR11758</t>
         </is>
       </c>
       <c r="F2988" t="inlineStr">
         <is>
-          <t>PTHR15858</t>
+          <t>PTHR11758</t>
         </is>
       </c>
     </row>
     <row r="2989">
       <c r="A2989" t="inlineStr">
         <is>
-          <t>P39704</t>
+          <t>P26263</t>
         </is>
       </c>
       <c r="B2989" t="inlineStr">
         <is>
-          <t>O13770</t>
+          <t>O42873</t>
         </is>
       </c>
       <c r="C2989" t="inlineStr">
@@ -95524,24 +95524,24 @@
       </c>
       <c r="E2989" t="inlineStr">
         <is>
-          <t>PTHR22811</t>
+          <t>PTHR43452</t>
         </is>
       </c>
       <c r="F2989" t="inlineStr">
         <is>
-          <t>PTHR22811</t>
+          <t>PTHR43452</t>
         </is>
       </c>
     </row>
     <row r="2990">
       <c r="A2990" t="inlineStr">
         <is>
-          <t>Q3E7A4</t>
+          <t>Q02793</t>
         </is>
       </c>
       <c r="B2990" t="inlineStr">
         <is>
-          <t>O74347</t>
+          <t>Q09150</t>
         </is>
       </c>
       <c r="C2990" t="inlineStr">
@@ -95556,24 +95556,24 @@
       </c>
       <c r="E2990" t="inlineStr">
         <is>
-          <t>PTHR22977</t>
+          <t>PTHR44090</t>
         </is>
       </c>
       <c r="F2990" t="inlineStr">
         <is>
-          <t>PTHR22977</t>
+          <t>PTHR44090</t>
         </is>
       </c>
     </row>
     <row r="2991">
       <c r="A2991" t="inlineStr">
         <is>
-          <t>P26263</t>
+          <t>Q12431</t>
         </is>
       </c>
       <c r="B2991" t="inlineStr">
         <is>
-          <t>O42873</t>
+          <t>O59764</t>
         </is>
       </c>
       <c r="C2991" t="inlineStr">
@@ -95588,24 +95588,24 @@
       </c>
       <c r="E2991" t="inlineStr">
         <is>
-          <t>PTHR43452</t>
+          <t>PTHR20994</t>
         </is>
       </c>
       <c r="F2991" t="inlineStr">
         <is>
-          <t>PTHR43452</t>
+          <t>PTHR20994</t>
         </is>
       </c>
     </row>
     <row r="2992">
       <c r="A2992" t="inlineStr">
         <is>
-          <t>P24031</t>
+          <t>P36108</t>
         </is>
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>P08091</t>
+          <t>O14177</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr">
@@ -95620,24 +95620,24 @@
       </c>
       <c r="E2992" t="inlineStr">
         <is>
-          <t>PTHR20963</t>
+          <t>PTHR10476</t>
         </is>
       </c>
       <c r="F2992" t="inlineStr">
         <is>
-          <t>PTHR20963</t>
+          <t>PTHR10476</t>
         </is>
       </c>
     </row>
     <row r="2993">
       <c r="A2993" t="inlineStr">
         <is>
-          <t>P53507</t>
+          <t>P17709</t>
         </is>
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>O42999</t>
+          <t>P50521</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr">
@@ -95652,24 +95652,24 @@
       </c>
       <c r="E2993" t="inlineStr">
         <is>
-          <t>PTHR34944</t>
+          <t>PTHR19443</t>
         </is>
       </c>
       <c r="F2993" t="inlineStr">
         <is>
-          <t>PTHR34944</t>
+          <t>PTHR19443</t>
         </is>
       </c>
     </row>
     <row r="2994">
       <c r="A2994" t="inlineStr">
         <is>
-          <t>P53299</t>
+          <t>P07255</t>
         </is>
       </c>
       <c r="B2994" t="inlineStr">
         <is>
-          <t>Q10481</t>
+          <t>O94705</t>
         </is>
       </c>
       <c r="C2994" t="inlineStr">
@@ -95684,24 +95684,24 @@
       </c>
       <c r="E2994" t="inlineStr">
         <is>
-          <t>PTHR19338</t>
+          <t>PTHR28264</t>
         </is>
       </c>
       <c r="F2994" t="inlineStr">
         <is>
-          <t>PTHR19338</t>
+          <t>PTHR28264</t>
         </is>
       </c>
     </row>
     <row r="2995">
       <c r="A2995" t="inlineStr">
         <is>
-          <t>P14180</t>
+          <t>P00360</t>
         </is>
       </c>
       <c r="B2995" t="inlineStr">
         <is>
-          <t>O74756</t>
+          <t>P78958</t>
         </is>
       </c>
       <c r="C2995" t="inlineStr">
@@ -95716,12 +95716,12 @@
       </c>
       <c r="E2995" t="inlineStr">
         <is>
-          <t>PTHR22914</t>
+          <t>PTHR10836</t>
         </is>
       </c>
       <c r="F2995" t="inlineStr">
         <is>
-          <t>PTHR22914</t>
+          <t>PTHR10836</t>
         </is>
       </c>
     </row>
